--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -70,10 +70,16 @@
     <t>C1001</t>
   </si>
   <si>
+    <t>C1002</t>
+  </si>
+  <si>
     <t>Sebastian Toro</t>
   </si>
   <si>
     <t>Bandian Torres</t>
+  </si>
+  <si>
+    <t>Tatiana Avila</t>
   </si>
   <si>
     <t>mundo E</t>
@@ -479,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +546,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -587,22 +593,45 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>C1002</t>
   </si>
   <si>
+    <t>C1003</t>
+  </si>
+  <si>
     <t>Sebastian Toro</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>Tatiana Avila</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
   <si>
     <t>mundo E</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,46 +552,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -593,22 +599,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -616,22 +622,45 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
     <t>C1003</t>
   </si>
   <si>
+    <t>C1004</t>
+  </si>
+  <si>
     <t>Sebastian Toro</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>SAUL TORRES</t>
   </si>
   <si>
     <t>mundo E</t>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,46 +558,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -599,22 +605,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -622,22 +628,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -645,22 +651,45 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -70,9 +70,6 @@
     <t>C1001</t>
   </si>
   <si>
-    <t>C1002</t>
-  </si>
-  <si>
     <t>C1003</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>Bandian Torres</t>
-  </si>
-  <si>
-    <t>Tatiana Avila</t>
   </si>
   <si>
     <t>hola</t>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,46 +552,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -605,22 +599,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -628,22 +622,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -651,45 +645,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
     <t>C1004</t>
   </si>
   <si>
+    <t>C1005</t>
+  </si>
+  <si>
     <t>Sebastian Toro</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>SAUL TORRES</t>
   </si>
   <si>
+    <t>VioletaAvila</t>
+  </si>
+  <si>
     <t>mundo E</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
   </si>
   <si>
     <t>2025-10-06</t>
@@ -491,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,46 +561,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -599,22 +608,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -622,22 +631,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -645,22 +654,45 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E6" t="s">
         <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>C1004</t>
   </si>
   <si>
-    <t>C1005</t>
-  </si>
-  <si>
     <t>Sebastian Toro</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>SAUL TORRES</t>
   </si>
   <si>
-    <t>VioletaAvila</t>
-  </si>
-  <si>
     <t>mundo E</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
   </si>
   <si>
     <t>2025-10-06</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,46 +552,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -608,22 +599,22 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -631,22 +622,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -654,45 +645,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>14500</t>
+  </si>
+  <si>
+    <t>PEND.DOC.PARA EVALUACION</t>
   </si>
   <si>
     <t>Prueba de sucursal</t>
@@ -575,23 +578,26 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16">

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -64,76 +64,799 @@
     <t>fuente</t>
   </si>
   <si>
-    <t>C1000</t>
-  </si>
-  <si>
-    <t>C1001</t>
-  </si>
-  <si>
-    <t>C1003</t>
-  </si>
-  <si>
-    <t>C1004</t>
-  </si>
-  <si>
-    <t>Sebastian Toro</t>
-  </si>
-  <si>
-    <t>Bandian Torres</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>SAUL TORRES</t>
-  </si>
-  <si>
-    <t>mundo E</t>
-  </si>
-  <si>
-    <t>TOXQUI</t>
-  </si>
-  <si>
-    <t>Martha Ortiz</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
-    <t>PROPUESTA</t>
-  </si>
-  <si>
-    <t>DISPERSADO</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>14500</t>
-  </si>
-  <si>
-    <t>PEND.DOC.PARA EVALUACION</t>
-  </si>
-  <si>
-    <t>Prueba de sucursal</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>555111222</t>
-  </si>
-  <si>
-    <t>ana@example.com</t>
-  </si>
-  <si>
-    <t>Claudia</t>
+    <t>C-1000</t>
+  </si>
+  <si>
+    <t>C-1001</t>
+  </si>
+  <si>
+    <t>C-1002</t>
+  </si>
+  <si>
+    <t>C-1003</t>
+  </si>
+  <si>
+    <t>C-1004</t>
+  </si>
+  <si>
+    <t>C-1005</t>
+  </si>
+  <si>
+    <t>C-1006</t>
+  </si>
+  <si>
+    <t>C-1007</t>
+  </si>
+  <si>
+    <t>C-1008</t>
+  </si>
+  <si>
+    <t>C-1009</t>
+  </si>
+  <si>
+    <t>C-1010</t>
+  </si>
+  <si>
+    <t>C-1011</t>
+  </si>
+  <si>
+    <t>C-1012</t>
+  </si>
+  <si>
+    <t>C-1013</t>
+  </si>
+  <si>
+    <t>C-1014</t>
+  </si>
+  <si>
+    <t>C-1015</t>
+  </si>
+  <si>
+    <t>C-1016</t>
+  </si>
+  <si>
+    <t>C-1017</t>
+  </si>
+  <si>
+    <t>C-1018</t>
+  </si>
+  <si>
+    <t>C-1019</t>
+  </si>
+  <si>
+    <t>C-1020</t>
+  </si>
+  <si>
+    <t>C-1021</t>
+  </si>
+  <si>
+    <t>C-1022</t>
+  </si>
+  <si>
+    <t>C-1023</t>
+  </si>
+  <si>
+    <t>C-1024</t>
+  </si>
+  <si>
+    <t>C-1025</t>
+  </si>
+  <si>
+    <t>C-1026</t>
+  </si>
+  <si>
+    <t>C-1027</t>
+  </si>
+  <si>
+    <t>C-1028</t>
+  </si>
+  <si>
+    <t>C-1029</t>
+  </si>
+  <si>
+    <t>C-1030</t>
+  </si>
+  <si>
+    <t>C-1031</t>
+  </si>
+  <si>
+    <t>C-1032</t>
+  </si>
+  <si>
+    <t>C-1033</t>
+  </si>
+  <si>
+    <t>C-1034</t>
+  </si>
+  <si>
+    <t>C-1035</t>
+  </si>
+  <si>
+    <t>C-1036</t>
+  </si>
+  <si>
+    <t>C-1037</t>
+  </si>
+  <si>
+    <t>C-1038</t>
+  </si>
+  <si>
+    <t>C-1039</t>
+  </si>
+  <si>
+    <t>Gabriela Ramírez</t>
+  </si>
+  <si>
+    <t>Santiago García</t>
+  </si>
+  <si>
+    <t>Felipe Reyes</t>
+  </si>
+  <si>
+    <t>Alejandra Jiménez</t>
+  </si>
+  <si>
+    <t>Rodrigo Martínez</t>
+  </si>
+  <si>
+    <t>José Díaz</t>
+  </si>
+  <si>
+    <t>Fernanda López</t>
+  </si>
+  <si>
+    <t>Juan Ramírez</t>
+  </si>
+  <si>
+    <t>Paula Martínez</t>
+  </si>
+  <si>
+    <t>Alejandra González</t>
+  </si>
+  <si>
+    <t>Héctor Hernández</t>
+  </si>
+  <si>
+    <t>Isabel Martínez</t>
+  </si>
+  <si>
+    <t>Ernesto Castillo</t>
+  </si>
+  <si>
+    <t>Natalia Díaz</t>
+  </si>
+  <si>
+    <t>Ricardo Gómez</t>
+  </si>
+  <si>
+    <t>Andrés Reyes</t>
+  </si>
+  <si>
+    <t>José Flores</t>
+  </si>
+  <si>
+    <t>José Hernández</t>
+  </si>
+  <si>
+    <t>Claudia Ortiz</t>
+  </si>
+  <si>
+    <t>Ernesto Rivera</t>
+  </si>
+  <si>
+    <t>Pablo González</t>
+  </si>
+  <si>
+    <t>Daniel Torres</t>
+  </si>
+  <si>
+    <t>María Hernández</t>
+  </si>
+  <si>
+    <t>Claudia Rodríguez</t>
+  </si>
+  <si>
+    <t>Miguel Gómez</t>
+  </si>
+  <si>
+    <t>Claudia Hernández</t>
+  </si>
+  <si>
+    <t>Valeria Rodríguez</t>
+  </si>
+  <si>
+    <t>Paula Morales</t>
+  </si>
+  <si>
+    <t>Santiago González</t>
+  </si>
+  <si>
+    <t>Ana López</t>
+  </si>
+  <si>
+    <t>Héctor García</t>
+  </si>
+  <si>
+    <t>Sofía Morales</t>
+  </si>
+  <si>
+    <t>Sofía Castillo</t>
+  </si>
+  <si>
+    <t>Miguel Castillo</t>
+  </si>
+  <si>
+    <t>Santiago Rodríguez</t>
+  </si>
+  <si>
+    <t>Elena Martínez</t>
+  </si>
+  <si>
+    <t>Juan López</t>
+  </si>
+  <si>
+    <t>Daniel López</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-10-12</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-09-20</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>2025-09-14</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>5551105977</t>
+  </si>
+  <si>
+    <t>5588967759</t>
+  </si>
+  <si>
+    <t>5544613006</t>
+  </si>
+  <si>
+    <t>5594401409</t>
+  </si>
+  <si>
+    <t>5598459702</t>
+  </si>
+  <si>
+    <t>5580720348</t>
+  </si>
+  <si>
+    <t>5519546421</t>
+  </si>
+  <si>
+    <t>5586279122</t>
+  </si>
+  <si>
+    <t>5516835995</t>
+  </si>
+  <si>
+    <t>5557202076</t>
+  </si>
+  <si>
+    <t>5543495389</t>
+  </si>
+  <si>
+    <t>5510922961</t>
+  </si>
+  <si>
+    <t>5595183518</t>
+  </si>
+  <si>
+    <t>5511047774</t>
+  </si>
+  <si>
+    <t>5528471378</t>
+  </si>
+  <si>
+    <t>5514643848</t>
+  </si>
+  <si>
+    <t>5523471001</t>
+  </si>
+  <si>
+    <t>5513633244</t>
+  </si>
+  <si>
+    <t>5597781275</t>
+  </si>
+  <si>
+    <t>5534323368</t>
+  </si>
+  <si>
+    <t>5569574772</t>
+  </si>
+  <si>
+    <t>5593152534</t>
+  </si>
+  <si>
+    <t>5585673309</t>
+  </si>
+  <si>
+    <t>5556232251</t>
+  </si>
+  <si>
+    <t>5565071727</t>
+  </si>
+  <si>
+    <t>5549854445</t>
+  </si>
+  <si>
+    <t>5566090703</t>
+  </si>
+  <si>
+    <t>5588071885</t>
+  </si>
+  <si>
+    <t>5568624974</t>
+  </si>
+  <si>
+    <t>5581011588</t>
+  </si>
+  <si>
+    <t>5535541267</t>
+  </si>
+  <si>
+    <t>5553185812</t>
+  </si>
+  <si>
+    <t>5523597126</t>
+  </si>
+  <si>
+    <t>5537234963</t>
+  </si>
+  <si>
+    <t>5584086751</t>
+  </si>
+  <si>
+    <t>5547165604</t>
+  </si>
+  <si>
+    <t>5542400565</t>
+  </si>
+  <si>
+    <t>5569790167</t>
+  </si>
+  <si>
+    <t>5525163322</t>
+  </si>
+  <si>
+    <t>5542494967</t>
+  </si>
+  <si>
+    <t>gabriela.ramírez@gmail.com</t>
+  </si>
+  <si>
+    <t>santiago.garcía@gmail.com</t>
+  </si>
+  <si>
+    <t>felipe.reyes@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandra.jiménez@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigo.martínez@gmail.com</t>
+  </si>
+  <si>
+    <t>josé.díaz@gmail.com</t>
+  </si>
+  <si>
+    <t>fernanda.lópez@gmail.com</t>
+  </si>
+  <si>
+    <t>juan.ramírez@gmail.com</t>
+  </si>
+  <si>
+    <t>paula.martínez@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandra.gonzález@gmail.com</t>
+  </si>
+  <si>
+    <t>héctor.hernández@gmail.com</t>
+  </si>
+  <si>
+    <t>isabel.martínez@gmail.com</t>
+  </si>
+  <si>
+    <t>ernesto.castillo@gmail.com</t>
+  </si>
+  <si>
+    <t>natalia.díaz@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo.gómez@gmail.com</t>
+  </si>
+  <si>
+    <t>andrés.reyes@gmail.com</t>
+  </si>
+  <si>
+    <t>josé.flores@gmail.com</t>
+  </si>
+  <si>
+    <t>josé.hernández@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>ernesto.rivera@gmail.com</t>
+  </si>
+  <si>
+    <t>pablo.gonzález@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>maría.hernández@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.rodríguez@gmail.com</t>
+  </si>
+  <si>
+    <t>miguel.gómez@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.hernández@gmail.com</t>
+  </si>
+  <si>
+    <t>valeria.rodríguez@gmail.com</t>
+  </si>
+  <si>
+    <t>paula.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>santiago.gonzález@gmail.com</t>
+  </si>
+  <si>
+    <t>ana.lópez@gmail.com</t>
+  </si>
+  <si>
+    <t>héctor.garcía@gmail.com</t>
+  </si>
+  <si>
+    <t>sofía.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>sofía.castillo@gmail.com</t>
+  </si>
+  <si>
+    <t>miguel.castillo@gmail.com</t>
+  </si>
+  <si>
+    <t>santiago.rodríguez@gmail.com</t>
+  </si>
+  <si>
+    <t>elena.martínez@gmail.com</t>
+  </si>
+  <si>
+    <t>juan.lópez@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.lópez@gmail.com</t>
+  </si>
+  <si>
+    <t>juan.pérez@gmail.com</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Orgánico</t>
+  </si>
+  <si>
+    <t>Llamada</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>Landing</t>
   </si>
   <si>
     <t>Facebook</t>
@@ -494,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,49 +1278,37 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -605,22 +1316,31 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -628,22 +1348,34 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -651,22 +1383,1294 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" t="s">
+        <v>273</v>
+      </c>
+      <c r="P6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" t="s">
+        <v>239</v>
+      </c>
+      <c r="O8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O9" t="s">
+        <v>274</v>
+      </c>
+      <c r="P9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>202</v>
+      </c>
+      <c r="N11" t="s">
+        <v>242</v>
+      </c>
+      <c r="O11" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" t="s">
+        <v>243</v>
+      </c>
+      <c r="O12" t="s">
+        <v>273</v>
+      </c>
+      <c r="P12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
+        <v>204</v>
+      </c>
+      <c r="N13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" t="s">
+        <v>273</v>
+      </c>
+      <c r="P13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>245</v>
+      </c>
+      <c r="O14" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" t="s">
+        <v>276</v>
+      </c>
+      <c r="P15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
         <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" t="s">
+        <v>248</v>
+      </c>
+      <c r="O17" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" t="s">
+        <v>249</v>
+      </c>
+      <c r="O18" t="s">
+        <v>276</v>
+      </c>
+      <c r="P18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s">
+        <v>210</v>
+      </c>
+      <c r="N19" t="s">
+        <v>250</v>
+      </c>
+      <c r="O19" t="s">
+        <v>274</v>
+      </c>
+      <c r="P19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" t="s">
+        <v>252</v>
+      </c>
+      <c r="O21" t="s">
+        <v>276</v>
+      </c>
+      <c r="P21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" t="s">
+        <v>253</v>
+      </c>
+      <c r="O22" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O23" t="s">
+        <v>275</v>
+      </c>
+      <c r="P23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" t="s">
+        <v>215</v>
+      </c>
+      <c r="N24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" t="s">
+        <v>273</v>
+      </c>
+      <c r="P24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" t="s">
+        <v>217</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>274</v>
+      </c>
+      <c r="P26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>272</v>
+      </c>
+      <c r="P27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" t="s">
+        <v>219</v>
+      </c>
+      <c r="N28" t="s">
+        <v>259</v>
+      </c>
+      <c r="O28" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" t="s">
+        <v>180</v>
+      </c>
+      <c r="M29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>273</v>
+      </c>
+      <c r="P29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" t="s">
+        <v>221</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" t="s">
+        <v>222</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>272</v>
+      </c>
+      <c r="P31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" t="s">
+        <v>223</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s">
+        <v>224</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>273</v>
+      </c>
+      <c r="P33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" t="s">
+        <v>185</v>
+      </c>
+      <c r="M34" t="s">
+        <v>225</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>275</v>
+      </c>
+      <c r="P34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" t="s">
+        <v>226</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>273</v>
+      </c>
+      <c r="P35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>276</v>
+      </c>
+      <c r="P36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" t="s">
+        <v>228</v>
+      </c>
+      <c r="N37" t="s">
+        <v>267</v>
+      </c>
+      <c r="O37" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M39" t="s">
+        <v>230</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>275</v>
+      </c>
+      <c r="P39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+      <c r="L40" t="s">
+        <v>191</v>
+      </c>
+      <c r="M40" t="s">
+        <v>231</v>
+      </c>
+      <c r="N40" t="s">
+        <v>270</v>
+      </c>
+      <c r="O40" t="s">
+        <v>274</v>
+      </c>
+      <c r="P40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" t="s">
+        <v>232</v>
+      </c>
+      <c r="N41" t="s">
+        <v>271</v>
+      </c>
+      <c r="O41" t="s">
+        <v>272</v>
+      </c>
+      <c r="P41" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
